--- a/yallkora/SavingScrapingFiles/scraping.xlsx
+++ b/yallkora/SavingScrapingFiles/scraping.xlsx
@@ -22,47 +22,47 @@
     <t>Link</t>
   </si>
   <si>
-    <t>مصدر بالأهلي لـ"يلا كورة": "شيك" المساهمة في علاج مؤمن صدر منذ أسبوعين</t>
-  </si>
-  <si>
-    <t>https://www.yallakora.com//egyptian-league/2620/News/384631/%D9%85%D8%B5%D8%AF%D8%B1-%D8%A8%D8%A7%D9%84%D8%A3%D9%87%D9%84%D9%8A-%D9%84%D9%80-%D9%8A%D9%84%D8%A7-%D9%83%D9%88%D8%B1%D8%A9-%D8%B4%D9%8A%D9%83-%D8%A7%D9%84%D9%85%D8%B3%D8%A7%D9%87%D9%85%D8%A9-%D9%81%D9%8A-%D8%B9%D9%84%D8%A7%D8%AC-%D9%85%D8%A4%D9%85%D9%86-%D8%B5%D8%AF%D8%B1-%D9%85%D9%86%D8%B0-%D8%A3%D8%B3%D8%A8%D9%88%D8%B9%D9%8A%D9%86#HP_FeaturedArea</t>
-  </si>
-  <si>
-    <t>فيفا: في مصر أعداء الأمس أصدقاء اليوم لمواجهة كورونا</t>
-  </si>
-  <si>
-    <t>https://www.yallakora.com//egyptian-league/2620/News/384624/%D9%81%D9%8A%D9%81%D8%A7-%D9%81%D9%8A-%D9%85%D8%B5%D8%B1-%D8%A3%D8%B9%D8%AF%D8%A7%D8%A1-%D8%A7%D9%84%D8%A3%D9%85%D8%B3-%D8%A3%D8%B5%D8%AF%D9%82%D8%A7%D8%A1-%D8%A7%D9%84%D9%8A%D9%88%D9%85-%D9%84%D9%85%D9%88%D8%A7%D8%AC%D9%87%D8%A9-%D9%83%D9%88%D8%B1%D9%88%D9%86%D8%A7#HP_FeaturedArea</t>
-  </si>
-  <si>
-    <t>تقارير تركية: بشكتاش يستوضح من أرسنال موقف النني بعد أزمة كورونا</t>
-  </si>
-  <si>
-    <t>https://www.yallakora.com//europa-league/2611/News/384627/%D8%AA%D9%82%D8%A7%D8%B1%D9%8A%D8%B1-%D8%AA%D8%B1%D9%83%D9%8A%D8%A9-%D8%A8%D8%B4%D9%83%D8%AA%D8%A7%D8%B4-%D9%8A%D8%B3%D8%AA%D9%88%D8%B6%D8%AD-%D9%85%D9%86-%D8%A3%D8%B1%D8%B3%D9%86%D8%A7%D9%84-%D9%85%D9%88%D9%82%D9%81-%D8%A7%D9%84%D9%86%D9%86%D9%8A-%D8%A8%D8%B9%D8%AF-%D8%A3%D8%B2%D9%85%D8%A9-%D9%83%D9%88%D8%B1%D9%88%D9%86%D8%A7#HP_FeaturedArea</t>
-  </si>
-  <si>
-    <t>تقرير.. أبرزهم ليفربول.. أندية قد يحول كورونا أحلامها إلى كوابيس</t>
-  </si>
-  <si>
-    <t>https://www.yallakora.com//epl/2596/News/384628/%D8%AA%D9%82%D8%B1%D9%8A%D8%B1-%D8%A3%D8%A8%D8%B1%D8%B2%D9%87%D9%85-%D9%84%D9%8A%D9%81%D8%B1%D8%A8%D9%88%D9%84-%D8%A3%D9%86%D8%AF%D9%8A%D8%A9-%D9%82%D8%AF-%D9%8A%D8%AD%D9%88%D9%84-%D9%83%D9%88%D8%B1%D9%88%D9%86%D8%A7-%D8%A3%D8%AD%D9%84%D8%A7%D9%85%D9%87%D8%A7-%D8%A5%D9%84%D9%89-%D9%83%D9%88%D8%A7%D8%A8%D9%8A%D8%B3#HP_FeaturedArea</t>
-  </si>
-  <si>
-    <t>تقارير تركية: طرابزون سبور ينافس بشكتاش لضم تريزيجيه</t>
-  </si>
-  <si>
-    <t>https://www.yallakora.com//epl/2596/News/384623/%D8%AA%D9%82%D8%A7%D8%B1%D9%8A%D8%B1-%D8%AA%D8%B1%D9%83%D9%8A%D8%A9-%D8%B7%D8%B1%D8%A7%D8%A8%D8%B2%D9%88%D9%86-%D8%B3%D8%A8%D9%88%D8%B1-%D9%8A%D9%86%D8%A7%D9%81%D8%B3-%D8%A8%D8%B4%D9%83%D8%AA%D8%A7%D8%B4-%D9%84%D8%B6%D9%85-%D8%AA%D8%B1%D9%8A%D8%B2%D9%8A%D8%AC%D9%8A%D9%87#HP_FeaturedArea</t>
-  </si>
-  <si>
-    <t>تقرير.. 5 أسماء في الأهلي أفسدت جائحة كورونا عودتهم للبساط الأخضر</t>
-  </si>
-  <si>
-    <t>https://www.yallakora.com//egyptian-league/2620/News/384622/%D8%AA%D9%82%D8%B1%D9%8A%D8%B1-5-%D8%A3%D8%B3%D9%85%D8%A7%D8%A1-%D9%81%D9%8A-%D8%A7%D9%84%D8%A3%D9%87%D9%84%D9%8A-%D8%A3%D9%81%D8%B3%D8%AF%D8%AA-%D8%AC%D8%A7%D8%A6%D8%AD%D8%A9-%D9%83%D9%88%D8%B1%D9%88%D9%86%D8%A7-%D8%B9%D9%88%D8%AF%D8%AA%D9%87%D9%85-%D9%84%D9%84%D8%A8%D8%B3%D8%A7%D8%B7-%D8%A7%D9%84%D8%A3%D8%AE%D8%B6%D8%B1#HP_FeaturedArea</t>
+    <t>لاعب ليفربول السابق: صلاح لا يحصل على التقدير الذي يستحقه</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//epl/2596/News/384664/</t>
+  </si>
+  <si>
+    <t>شوبير: لن أكرر "مأساة" النائب في اتحاد الكرة.. وهل أبو ريدة "عفريت"؟</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//egyptian-league/2620/News/384658/</t>
+  </si>
+  <si>
+    <t>مؤامرة ضد سيتي.. آرسنال وراء تحريض الأندية لمنع تعليق عقوبة يويفا</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//epl/2596/News/384661/</t>
+  </si>
+  <si>
+    <t>لاعب ليفربول السابق: الوضع صعب.. ولكن يجب إكمال موسم بريميرليج مهما حدث</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//epl/2596/News/384665/</t>
+  </si>
+  <si>
+    <t>الحضري: أعتبر فترة لعبي للزمالك غير محسوبة.. وأتمنى محوها من تاريخي</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//egyptian-league/2620/News/384659/</t>
+  </si>
+  <si>
+    <t>فيرجس سوتر.. عامل الحجارة الذي تحول إلى أول لاعب محترف في كرة القدم</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//friendly-matches-nations/2438/News/384657/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +74,14 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,16 +116,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,13 +428,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,7 +453,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -452,7 +464,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -463,7 +475,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -474,7 +486,7 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -485,7 +497,7 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -496,11 +508,14 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>